--- a/00_utilities/calculate_simulation_time.xlsx
+++ b/00_utilities/calculate_simulation_time.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Years simulated</t>
   </si>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>ICE</t>
+  </si>
+  <si>
+    <t>no.sites</t>
+  </si>
+  <si>
+    <t>no.steps</t>
+  </si>
+  <si>
+    <t>simulation sec</t>
+  </si>
+  <si>
+    <t>sec.hours</t>
   </si>
 </sst>
 </file>
@@ -371,21 +383,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J4"/>
+  <dimension ref="B1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -410,8 +431,20 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>50</v>
       </c>
@@ -439,8 +472,35 @@
         <f>I2/60/60</f>
         <v>12.8375</v>
       </c>
+      <c r="O2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2">
+        <v>3081</v>
+      </c>
+      <c r="Q2">
+        <f>P2*M2</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f>Q2/60/60</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>1/C3*365*B3+1</f>
+        <v>3651</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
@@ -456,8 +516,23 @@
         <f>I3/60/60</f>
         <v>25</v>
       </c>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3">
+        <f>100*60</f>
+        <v>6000</v>
+      </c>
+      <c r="Q3">
+        <f>P3*M2</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>Q3/60/60</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>9</v>
       </c>
@@ -472,6 +547,70 @@
       <c r="J4">
         <f>I4/60/60</f>
         <v>41.666666666666664</v>
+      </c>
+      <c r="O4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4">
+        <f>100*100</f>
+        <v>10000</v>
+      </c>
+      <c r="Q4">
+        <f>P4*M2</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f>Q4/60/60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <f>F14*G14*E3</f>
+        <v>3000</v>
+      </c>
+      <c r="I14">
+        <f>H14/60/60</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+      <c r="H15">
+        <f>F15*G15*E3</f>
+        <v>4500</v>
+      </c>
+      <c r="I15">
+        <f>H15/60/60</f>
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/00_utilities/calculate_simulation_time.xlsx
+++ b/00_utilities/calculate_simulation_time.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Years simulated</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>sec.hours</t>
+  </si>
+  <si>
+    <t>Prev threshold</t>
   </si>
 </sst>
 </file>
@@ -383,14 +386,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -406,7 +410,10 @@
     <col min="18" max="18" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +451,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.15</v>
+      </c>
       <c r="B2">
         <v>50</v>
       </c>
@@ -487,7 +497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>10</v>
       </c>
@@ -532,7 +542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>9</v>
       </c>
@@ -564,7 +574,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.1</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>3081</v>
+      </c>
+      <c r="I6">
+        <f>H6*E6</f>
+        <v>67782</v>
+      </c>
+      <c r="J6">
+        <f>I6/60/60</f>
+        <v>18.828333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>9</v>
       </c>
@@ -581,7 +619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F14">
         <v>50</v>
       </c>
@@ -597,7 +635,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F15">
         <v>50</v>
       </c>
